--- a/EC/Train Runs and Enforcements 2016-06-24.xlsx
+++ b/EC/Train Runs and Enforcements 2016-06-24.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -1960,7 +1960,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2181,6 +2181,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2547,8 +2548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM204"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R139" sqref="R139"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2908,6 +2909,10 @@
       <c r="N11" s="80"/>
       <c r="O11" s="80"/>
       <c r="P11" s="80"/>
+      <c r="S11" s="90">
+        <f>AVERAGE(S13:S99999)</f>
+        <v>0.90136054421768708</v>
+      </c>
     </row>
     <row r="12" spans="1:91" s="10" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
@@ -17534,7 +17539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q125"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N25" sqref="A25:N45"/>
     </sheetView>
   </sheetViews>
